--- a/Code/Results/Cases/Case_8_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.055061896107816</v>
+        <v>1.985938037411813</v>
       </c>
       <c r="C2">
-        <v>0.3633544517473126</v>
+        <v>0.3977866416710754</v>
       </c>
       <c r="D2">
-        <v>0.05292135448762991</v>
+        <v>0.05979906476814989</v>
       </c>
       <c r="E2">
-        <v>0.04624011097736114</v>
+        <v>0.04959315022468402</v>
       </c>
       <c r="F2">
-        <v>0.8193590566301694</v>
+        <v>0.7469570643116725</v>
       </c>
       <c r="G2">
-        <v>0.0008151719150580863</v>
+        <v>0.008108869978335154</v>
       </c>
       <c r="H2">
-        <v>0.004871450091103402</v>
+        <v>0.003022249251154463</v>
       </c>
       <c r="I2">
-        <v>0.003598971038520027</v>
+        <v>0.00182419495815811</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.43235004250554</v>
+        <v>0.3763279912388882</v>
       </c>
       <c r="L2">
-        <v>0.07082154408959962</v>
+        <v>0.1809277102605407</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1071245771178919</v>
       </c>
       <c r="N2">
-        <v>0.1986642517916479</v>
+        <v>0.07374119190679096</v>
       </c>
       <c r="O2">
-        <v>0.3848684163945322</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9571147873561472</v>
+        <v>0.2145109717757308</v>
       </c>
       <c r="Q2">
-        <v>2.151952361669743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3800182246221624</v>
+      </c>
+      <c r="R2">
+        <v>0.9312455929113952</v>
+      </c>
+      <c r="S2">
+        <v>1.915755299360427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.793634929097465</v>
+        <v>1.736799407148425</v>
       </c>
       <c r="C3">
-        <v>0.3229112235004266</v>
+        <v>0.3520166826264415</v>
       </c>
       <c r="D3">
-        <v>0.0497739768573453</v>
+        <v>0.05699200317151565</v>
       </c>
       <c r="E3">
-        <v>0.04505809801423988</v>
+        <v>0.04891819973357325</v>
       </c>
       <c r="F3">
-        <v>0.7863775811064926</v>
+        <v>0.7158048140298661</v>
       </c>
       <c r="G3">
-        <v>0.0008182437306062705</v>
+        <v>0.01082177681266949</v>
       </c>
       <c r="H3">
-        <v>0.006821954348250336</v>
+        <v>0.004376437575129788</v>
       </c>
       <c r="I3">
-        <v>0.005152325347517639</v>
+        <v>0.002650701590539928</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.42968507804677</v>
+        <v>0.3745691925787042</v>
       </c>
       <c r="L3">
-        <v>0.06845853100232624</v>
+        <v>0.1846258016817615</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1035510516184583</v>
       </c>
       <c r="N3">
-        <v>0.1795085683662876</v>
+        <v>0.07169979772587975</v>
       </c>
       <c r="O3">
-        <v>0.3377792947055767</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9745849191232665</v>
+        <v>0.1939456903795289</v>
       </c>
       <c r="Q3">
-        <v>2.069536087168245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3334718054312802</v>
+      </c>
+      <c r="R3">
+        <v>0.9400088375948172</v>
+      </c>
+      <c r="S3">
+        <v>1.836818332801585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.632564157245241</v>
+        <v>1.582917270703746</v>
       </c>
       <c r="C4">
-        <v>0.298183391194641</v>
+        <v>0.3241002451336499</v>
       </c>
       <c r="D4">
-        <v>0.04786028725931857</v>
+        <v>0.05530720368984632</v>
       </c>
       <c r="E4">
-        <v>0.04431739993112194</v>
+        <v>0.04849418548894757</v>
       </c>
       <c r="F4">
-        <v>0.7666866786700695</v>
+        <v>0.6969640310589327</v>
       </c>
       <c r="G4">
-        <v>0.0008202008427399821</v>
+        <v>0.01275234195379876</v>
       </c>
       <c r="H4">
-        <v>0.008234620850553986</v>
+        <v>0.005369738122018852</v>
       </c>
       <c r="I4">
-        <v>0.0063351670154419</v>
+        <v>0.003323757011130191</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.428323045394702</v>
+        <v>0.3736067910984957</v>
       </c>
       <c r="L4">
-        <v>0.06697225311111943</v>
+        <v>0.1869311167927634</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1019182972015358</v>
       </c>
       <c r="N4">
-        <v>0.1678051266428184</v>
+        <v>0.0704165641657557</v>
       </c>
       <c r="O4">
-        <v>0.3088301901842243</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9860074107785763</v>
+        <v>0.1814074357433597</v>
       </c>
       <c r="Q4">
-        <v>2.020561875655886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3048155731530002</v>
+      </c>
+      <c r="R4">
+        <v>0.9460865231379643</v>
+      </c>
+      <c r="S4">
+        <v>1.789040220796721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.565812206318583</v>
+        <v>1.519019336343604</v>
       </c>
       <c r="C5">
-        <v>0.2885312151244932</v>
+        <v>0.3131928521246294</v>
       </c>
       <c r="D5">
-        <v>0.04710250388739112</v>
+        <v>0.05464913699647056</v>
       </c>
       <c r="E5">
-        <v>0.04400299778849748</v>
+        <v>0.04831101614151745</v>
       </c>
       <c r="F5">
-        <v>0.7582967215308543</v>
+        <v>0.6888646970050019</v>
       </c>
       <c r="G5">
-        <v>0.0008210214218665659</v>
+        <v>0.013608700219432</v>
       </c>
       <c r="H5">
-        <v>0.008866131995892507</v>
+        <v>0.005816477291508915</v>
       </c>
       <c r="I5">
-        <v>0.006952830648349284</v>
+        <v>0.003727655253458195</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4274871241111029</v>
+        <v>0.3729150321031618</v>
       </c>
       <c r="L5">
-        <v>0.06635418614677846</v>
+        <v>0.1877172540815373</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1013083039523952</v>
       </c>
       <c r="N5">
-        <v>0.1631732575332308</v>
+        <v>0.06988496677970701</v>
       </c>
       <c r="O5">
-        <v>0.2969625613847953</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9910352318993105</v>
+        <v>0.1764469700604892</v>
       </c>
       <c r="Q5">
-        <v>1.999453276467989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2930576453511975</v>
+      </c>
+      <c r="R5">
+        <v>0.9489705386168197</v>
+      </c>
+      <c r="S5">
+        <v>1.768230787939615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.553530640662075</v>
+        <v>1.507219846015772</v>
       </c>
       <c r="C6">
-        <v>0.2874233726998199</v>
+        <v>0.3119060775217974</v>
       </c>
       <c r="D6">
-        <v>0.04699849934531386</v>
+        <v>0.054563664946226</v>
       </c>
       <c r="E6">
-        <v>0.04394007296175051</v>
+        <v>0.0482708632528297</v>
       </c>
       <c r="F6">
-        <v>0.7562995314326173</v>
+        <v>0.686925231741867</v>
       </c>
       <c r="G6">
-        <v>0.0008211648504038438</v>
+        <v>0.01376145627459879</v>
       </c>
       <c r="H6">
-        <v>0.008978769370809436</v>
+        <v>0.005896432160740372</v>
       </c>
       <c r="I6">
-        <v>0.007164073037841057</v>
+        <v>0.003915398961186867</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4269276564119444</v>
+        <v>0.3724016353109754</v>
       </c>
       <c r="L6">
-        <v>0.06624733814659667</v>
+        <v>0.1876511156220495</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1011110235812058</v>
       </c>
       <c r="N6">
-        <v>0.1625570017126066</v>
+        <v>0.0697952656659302</v>
       </c>
       <c r="O6">
-        <v>0.2949175663702945</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9921299330353435</v>
+        <v>0.1757812327214339</v>
       </c>
       <c r="Q6">
-        <v>1.994085388717906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.291030195114196</v>
+      </c>
+      <c r="R6">
+        <v>0.9497506207642843</v>
+      </c>
+      <c r="S6">
+        <v>1.762949988230531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.628406777070808</v>
+        <v>1.57509935801923</v>
       </c>
       <c r="C7">
-        <v>0.2994051170362297</v>
+        <v>0.3235865565301594</v>
       </c>
       <c r="D7">
-        <v>0.04790902122167395</v>
+        <v>0.05569248974785879</v>
       </c>
       <c r="E7">
-        <v>0.04428479422036169</v>
+        <v>0.04849628983713217</v>
       </c>
       <c r="F7">
-        <v>0.7649016658249366</v>
+        <v>0.6921963206905772</v>
       </c>
       <c r="G7">
-        <v>0.0008202281411549214</v>
+        <v>0.01313873985307268</v>
       </c>
       <c r="H7">
-        <v>0.008254926442418792</v>
+        <v>0.005399173909300503</v>
       </c>
       <c r="I7">
-        <v>0.006614612773539363</v>
+        <v>0.003646157978304032</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4271527723918496</v>
+        <v>0.3711851080867312</v>
       </c>
       <c r="L7">
-        <v>0.0669545628908681</v>
+        <v>0.1857811790221575</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.101251525426834</v>
       </c>
       <c r="N7">
-        <v>0.1681587452073146</v>
+        <v>0.07036670095102604</v>
       </c>
       <c r="O7">
-        <v>0.3084680607359118</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.986771262694873</v>
+        <v>0.1816022123328267</v>
       </c>
       <c r="Q7">
-        <v>2.015124669697855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3038432996043383</v>
+      </c>
+      <c r="R7">
+        <v>0.9479704968287237</v>
+      </c>
+      <c r="S7">
+        <v>1.773586458492076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.960677684644793</v>
+        <v>1.883397429009221</v>
       </c>
       <c r="C8">
-        <v>0.3511926675806762</v>
+        <v>0.3778261330394059</v>
       </c>
       <c r="D8">
-        <v>0.05191054976289422</v>
+        <v>0.06002024177769982</v>
       </c>
       <c r="E8">
-        <v>0.04579886564727609</v>
+        <v>0.04943234904525218</v>
       </c>
       <c r="F8">
-        <v>0.8056572535952995</v>
+        <v>0.7240167746508703</v>
       </c>
       <c r="G8">
-        <v>0.0008162368039626504</v>
+        <v>0.01086431450288305</v>
       </c>
       <c r="H8">
-        <v>0.005510329256113833</v>
+        <v>0.003500742065743911</v>
       </c>
       <c r="I8">
-        <v>0.004410096834417843</v>
+        <v>0.002471155758207999</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4298460386349845</v>
+        <v>0.3699617885353064</v>
       </c>
       <c r="L8">
-        <v>0.07000389420546149</v>
+        <v>0.1796548729222067</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1039914428763868</v>
       </c>
       <c r="N8">
-        <v>0.1926008824400967</v>
+        <v>0.07291207602918082</v>
       </c>
       <c r="O8">
-        <v>0.3683678719383749</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9639796389066646</v>
+        <v>0.2074145518654689</v>
       </c>
       <c r="Q8">
-        <v>2.116373102717318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3616625740435282</v>
+      </c>
+      <c r="R8">
+        <v>0.9390360274311362</v>
+      </c>
+      <c r="S8">
+        <v>1.848276359141749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.614009044251929</v>
+        <v>2.500160223842613</v>
       </c>
       <c r="C9">
-        <v>0.4513317529844869</v>
+        <v>0.4897164418353555</v>
       </c>
       <c r="D9">
-        <v>0.05981348991667801</v>
+        <v>0.06749394166595835</v>
       </c>
       <c r="E9">
-        <v>0.04870967738358756</v>
+        <v>0.0511266073393486</v>
       </c>
       <c r="F9">
-        <v>0.8933050227754649</v>
+        <v>0.8027256077200917</v>
       </c>
       <c r="G9">
-        <v>0.0008089366638121808</v>
+        <v>0.005839768516579191</v>
       </c>
       <c r="H9">
-        <v>0.001917041918447882</v>
+        <v>0.001067112222625233</v>
       </c>
       <c r="I9">
-        <v>0.001599285048583532</v>
+        <v>0.001037785454437667</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4394778026588142</v>
+        <v>0.3752502176252754</v>
       </c>
       <c r="L9">
-        <v>0.07573673149506455</v>
+        <v>0.1710689926294542</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1157481863338745</v>
       </c>
       <c r="N9">
-        <v>0.240309601759165</v>
+        <v>0.07782429707475824</v>
       </c>
       <c r="O9">
-        <v>0.4859816549855651</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9236517129765787</v>
+        <v>0.2586273646740551</v>
       </c>
       <c r="Q9">
-        <v>2.337970734177247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.477061433829661</v>
+      </c>
+      <c r="R9">
+        <v>0.9218442168834997</v>
+      </c>
+      <c r="S9">
+        <v>2.046352886852304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.079410716827226</v>
+        <v>2.915507884573742</v>
       </c>
       <c r="C10">
-        <v>0.5282177330654747</v>
+        <v>0.5641468597445396</v>
       </c>
       <c r="D10">
-        <v>0.06476828815969071</v>
+        <v>0.07418599725649955</v>
       </c>
       <c r="E10">
-        <v>0.05019144442869772</v>
+        <v>0.05195457994861918</v>
       </c>
       <c r="F10">
-        <v>0.9500168374838438</v>
+        <v>0.8351864174904193</v>
       </c>
       <c r="G10">
-        <v>0.0008039878546432317</v>
+        <v>0.01119635841635613</v>
       </c>
       <c r="H10">
-        <v>0.0007556112570710205</v>
+        <v>0.0004408339459001098</v>
       </c>
       <c r="I10">
-        <v>0.0009949470203656219</v>
+        <v>0.001081144304750481</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4430525551624527</v>
+        <v>0.3684694856713122</v>
       </c>
       <c r="L10">
-        <v>0.08023498042074984</v>
+        <v>0.1609139654363041</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1226102355918357</v>
       </c>
       <c r="N10">
-        <v>0.267998035894621</v>
+        <v>0.081695792370029</v>
       </c>
       <c r="O10">
-        <v>0.5660470832705613</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9022827471946258</v>
+        <v>0.2875860528502727</v>
       </c>
       <c r="Q10">
-        <v>2.48286823024867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5516725175303137</v>
+      </c>
+      <c r="R10">
+        <v>0.9260871696354371</v>
+      </c>
+      <c r="S10">
+        <v>2.114298117858567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.190202535689821</v>
+        <v>2.977324097655867</v>
       </c>
       <c r="C11">
-        <v>0.5810190370075077</v>
+        <v>0.5926243795854305</v>
       </c>
       <c r="D11">
-        <v>0.05875090712703468</v>
+        <v>0.07153910230815796</v>
       </c>
       <c r="E11">
-        <v>0.04760092283615658</v>
+        <v>0.04925418169989404</v>
       </c>
       <c r="F11">
-        <v>0.8867135509303523</v>
+        <v>0.7437278741374271</v>
       </c>
       <c r="G11">
-        <v>0.0008025074678174237</v>
+        <v>0.04501989497376968</v>
       </c>
       <c r="H11">
-        <v>0.0192737474943101</v>
+        <v>0.01902877891518173</v>
       </c>
       <c r="I11">
-        <v>0.00145295168771753</v>
+        <v>0.001747984915045464</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4053642688870944</v>
+        <v>0.3231346170142189</v>
       </c>
       <c r="L11">
-        <v>0.0903551139721408</v>
+        <v>0.1420502568351072</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1085452412338128</v>
       </c>
       <c r="N11">
-        <v>0.2160106823511825</v>
+        <v>0.09248691709949597</v>
       </c>
       <c r="O11">
-        <v>0.5483289486047838</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9350014972223093</v>
+        <v>0.2310711696006393</v>
       </c>
       <c r="Q11">
-        <v>2.327210449978281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5265516696757615</v>
+      </c>
+      <c r="R11">
+        <v>0.9932820910672149</v>
+      </c>
+      <c r="S11">
+        <v>1.862968257835178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.188883646708803</v>
+        <v>2.959603042982621</v>
       </c>
       <c r="C12">
-        <v>0.6077586728952724</v>
+        <v>0.605378509507716</v>
       </c>
       <c r="D12">
-        <v>0.05290369929731042</v>
+        <v>0.06656572799300164</v>
       </c>
       <c r="E12">
-        <v>0.04773324109401811</v>
+        <v>0.04894832257222026</v>
       </c>
       <c r="F12">
-        <v>0.8247949311131038</v>
+        <v>0.6754319856630744</v>
       </c>
       <c r="G12">
-        <v>0.0008022096652159064</v>
+        <v>0.06948685698132806</v>
       </c>
       <c r="H12">
-        <v>0.05800038180539957</v>
+        <v>0.05775816975371839</v>
       </c>
       <c r="I12">
-        <v>0.001445158951750791</v>
+        <v>0.001750335136807557</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3756530518299108</v>
+        <v>0.2943597570922627</v>
       </c>
       <c r="L12">
-        <v>0.1039075262320033</v>
+        <v>0.1314290120272688</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09799016682061179</v>
       </c>
       <c r="N12">
-        <v>0.171174961846873</v>
+        <v>0.1065880756424029</v>
       </c>
       <c r="O12">
-        <v>0.516955363854585</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9713734711274356</v>
+        <v>0.183122061570721</v>
       </c>
       <c r="Q12">
-        <v>2.174719702368861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.492648667310192</v>
+      </c>
+      <c r="R12">
+        <v>1.049638348057897</v>
+      </c>
+      <c r="S12">
+        <v>1.686595138919017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.095991338736383</v>
+        <v>2.884472353015894</v>
       </c>
       <c r="C13">
-        <v>0.6178619785525257</v>
+        <v>0.6141280574644554</v>
       </c>
       <c r="D13">
-        <v>0.04696484845431215</v>
+        <v>0.05908844309647066</v>
       </c>
       <c r="E13">
-        <v>0.04984752670579073</v>
+        <v>0.05074403848214804</v>
       </c>
       <c r="F13">
-        <v>0.7577409760254952</v>
+        <v>0.622724082297097</v>
       </c>
       <c r="G13">
-        <v>0.0008028273625976355</v>
+        <v>0.06377429312479066</v>
       </c>
       <c r="H13">
-        <v>0.1139023722203234</v>
+        <v>0.1135994052762186</v>
       </c>
       <c r="I13">
-        <v>0.001430369751961535</v>
+        <v>0.001680931369955729</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.34848900475723</v>
+        <v>0.2759231389813195</v>
       </c>
       <c r="L13">
-        <v>0.1206050535555008</v>
+        <v>0.125529393928975</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08982242584973577</v>
       </c>
       <c r="N13">
-        <v>0.1301176323911335</v>
+        <v>0.1240306928286401</v>
       </c>
       <c r="O13">
-        <v>0.4731695777247182</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.012785785385475</v>
+        <v>0.1399738118662555</v>
       </c>
       <c r="Q13">
-        <v>2.007568732670478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4511524214650464</v>
+      </c>
+      <c r="R13">
+        <v>1.092576362946417</v>
+      </c>
+      <c r="S13">
+        <v>1.564012293618731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.988837053781367</v>
+        <v>2.804391193976187</v>
       </c>
       <c r="C14">
-        <v>0.6178407771278103</v>
+        <v>0.6188642387055836</v>
       </c>
       <c r="D14">
-        <v>0.04286691687800115</v>
+        <v>0.05312177366331383</v>
       </c>
       <c r="E14">
-        <v>0.05252534473408765</v>
+        <v>0.0534585874918676</v>
       </c>
       <c r="F14">
-        <v>0.7086151374836192</v>
+        <v>0.5914039895512317</v>
       </c>
       <c r="G14">
-        <v>0.0008036767721487191</v>
+        <v>0.04725374614925926</v>
       </c>
       <c r="H14">
-        <v>0.1634071942811062</v>
+        <v>0.1630252316552827</v>
       </c>
       <c r="I14">
-        <v>0.001521163993050578</v>
+        <v>0.001707561629682885</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3306503690965563</v>
+        <v>0.2668302252179338</v>
       </c>
       <c r="L14">
-        <v>0.1343549590939048</v>
+        <v>0.1230650922554908</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08501390936907072</v>
       </c>
       <c r="N14">
-        <v>0.1041645316541278</v>
+        <v>0.1384342432889696</v>
       </c>
       <c r="O14">
-        <v>0.4371819697348229</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.044657147676034</v>
+        <v>0.1129055320700587</v>
       </c>
       <c r="Q14">
-        <v>1.883898401505945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4186546986426407</v>
+      </c>
+      <c r="R14">
+        <v>1.11600860298681</v>
+      </c>
+      <c r="S14">
+        <v>1.497560813991072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.942302297539641</v>
+        <v>2.77074074529952</v>
       </c>
       <c r="C15">
-        <v>0.6147874937535107</v>
+        <v>0.6194408793265893</v>
       </c>
       <c r="D15">
-        <v>0.04182523811705963</v>
+        <v>0.051320437592139</v>
       </c>
       <c r="E15">
-        <v>0.05325306601193702</v>
+        <v>0.05433476180680152</v>
       </c>
       <c r="F15">
-        <v>0.6949927677293459</v>
+        <v>0.5854271532831135</v>
       </c>
       <c r="G15">
-        <v>0.0008040934407642581</v>
+        <v>0.03888647782379095</v>
       </c>
       <c r="H15">
-        <v>0.175997656562501</v>
+        <v>0.1755733344757004</v>
       </c>
       <c r="I15">
-        <v>0.001672652357545878</v>
+        <v>0.00184277794039911</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3264048193710245</v>
+        <v>0.2658763521622127</v>
       </c>
       <c r="L15">
-        <v>0.1375994800306373</v>
+        <v>0.1230585032687053</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08406383342078527</v>
       </c>
       <c r="N15">
-        <v>0.09807194745816616</v>
+        <v>0.1419292611933045</v>
       </c>
       <c r="O15">
-        <v>0.425761747598365</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.05316096109317</v>
+        <v>0.1066465880607126</v>
       </c>
       <c r="Q15">
-        <v>1.848988711465552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.408879286931068</v>
+      </c>
+      <c r="R15">
+        <v>1.11846916205505</v>
+      </c>
+      <c r="S15">
+        <v>1.487720735507963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.76088841099147</v>
+        <v>2.641671262082866</v>
       </c>
       <c r="C16">
-        <v>0.5798510222922459</v>
+        <v>0.6043961053857174</v>
       </c>
       <c r="D16">
-        <v>0.04105945690690405</v>
+        <v>0.04796961945035605</v>
       </c>
       <c r="E16">
-        <v>0.05204332759171315</v>
+        <v>0.05418705078701258</v>
       </c>
       <c r="F16">
-        <v>0.6838640530162792</v>
+        <v>0.6023241897771285</v>
       </c>
       <c r="G16">
-        <v>0.000806084779375576</v>
+        <v>0.01099861557114501</v>
       </c>
       <c r="H16">
-        <v>0.1637354215742732</v>
+        <v>0.1630617003078072</v>
       </c>
       <c r="I16">
-        <v>0.002008575614957486</v>
+        <v>0.001973098766381298</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3297515071259589</v>
+        <v>0.2790798324875077</v>
       </c>
       <c r="L16">
-        <v>0.1316616137279709</v>
+        <v>0.1294024418947188</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08648567836423737</v>
       </c>
       <c r="N16">
-        <v>0.09579320350840703</v>
+        <v>0.1367442403266352</v>
       </c>
       <c r="O16">
-        <v>0.4012864064334565</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.051104606301195</v>
+        <v>0.1051869036366355</v>
       </c>
       <c r="Q16">
-        <v>1.818575255160511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3911081709312043</v>
+      </c>
+      <c r="R16">
+        <v>1.083966495402024</v>
+      </c>
+      <c r="S16">
+        <v>1.551217262405288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.678536833976352</v>
+        <v>2.579105656676347</v>
       </c>
       <c r="C17">
-        <v>0.5532309709757044</v>
+        <v>0.5870039910367382</v>
       </c>
       <c r="D17">
-        <v>0.04259720716528292</v>
+        <v>0.04868982156197887</v>
       </c>
       <c r="E17">
-        <v>0.04949192136742653</v>
+        <v>0.05209980108869239</v>
       </c>
       <c r="F17">
-        <v>0.7012071743300652</v>
+        <v>0.6293034467399821</v>
       </c>
       <c r="G17">
-        <v>0.0008071667783985463</v>
+        <v>0.005257220361230885</v>
       </c>
       <c r="H17">
-        <v>0.1262601678062509</v>
+        <v>0.1254293707547021</v>
       </c>
       <c r="I17">
-        <v>0.002261302583032254</v>
+        <v>0.002094390663777368</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3416660629916954</v>
+        <v>0.2934205661991633</v>
       </c>
       <c r="L17">
-        <v>0.119405311757113</v>
+        <v>0.1357349993156696</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09037018502478666</v>
       </c>
       <c r="N17">
-        <v>0.1071737123608045</v>
+        <v>0.1245384433736234</v>
       </c>
       <c r="O17">
-        <v>0.4014052675819428</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.032855108130477</v>
+        <v>0.117756017713404</v>
       </c>
       <c r="Q17">
-        <v>1.860547656598555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3938384072274133</v>
+      </c>
+      <c r="R17">
+        <v>1.050730877356017</v>
+      </c>
+      <c r="S17">
+        <v>1.626315174148971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.674071209678459</v>
+        <v>2.57774987426285</v>
       </c>
       <c r="C18">
-        <v>0.5296292646571032</v>
+        <v>0.5687966667661613</v>
       </c>
       <c r="D18">
-        <v>0.04646617736675296</v>
+        <v>0.05243305523394781</v>
       </c>
       <c r="E18">
-        <v>0.04673300268183578</v>
+        <v>0.0494025622620331</v>
       </c>
       <c r="F18">
-        <v>0.7468920673209993</v>
+        <v>0.6754330252744012</v>
       </c>
       <c r="G18">
-        <v>0.0008075373242568332</v>
+        <v>0.003945366348056645</v>
       </c>
       <c r="H18">
-        <v>0.07351588837590839</v>
+        <v>0.07263793582537659</v>
       </c>
       <c r="I18">
-        <v>0.002100285787545175</v>
+        <v>0.001843885567098802</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3636903887288057</v>
+        <v>0.3136485124334989</v>
       </c>
       <c r="L18">
-        <v>0.1030029992759438</v>
+        <v>0.1439156247517683</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09715861549664595</v>
       </c>
       <c r="N18">
-        <v>0.1342984983932212</v>
+        <v>0.1076587687465995</v>
       </c>
       <c r="O18">
-        <v>0.4231393161163979</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9998688598030512</v>
+        <v>0.1468556109371733</v>
       </c>
       <c r="Q18">
-        <v>1.974556553729627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4163036604645072</v>
+      </c>
+      <c r="R18">
+        <v>1.010464874485393</v>
+      </c>
+      <c r="S18">
+        <v>1.743289966793668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.725939537456782</v>
+        <v>2.622849682186313</v>
       </c>
       <c r="C19">
-        <v>0.5132905031415191</v>
+        <v>0.5563141771042694</v>
       </c>
       <c r="D19">
-        <v>0.05236466293134612</v>
+        <v>0.05856884596082068</v>
       </c>
       <c r="E19">
-        <v>0.04582622236913914</v>
+        <v>0.04828200619607315</v>
       </c>
       <c r="F19">
-        <v>0.810917114757828</v>
+        <v>0.7345493209796956</v>
       </c>
       <c r="G19">
-        <v>0.0008072918353259498</v>
+        <v>0.003532903173895541</v>
       </c>
       <c r="H19">
-        <v>0.0280569463789746</v>
+        <v>0.02725396702805227</v>
       </c>
       <c r="I19">
-        <v>0.002153181940631299</v>
+        <v>0.001963480818151453</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3916566424161694</v>
+        <v>0.337276125407552</v>
       </c>
       <c r="L19">
-        <v>0.08865727315359706</v>
+        <v>0.1529673312897195</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1058595866474725</v>
       </c>
       <c r="N19">
-        <v>0.1772133006552039</v>
+        <v>0.09241717111972036</v>
       </c>
       <c r="O19">
-        <v>0.4610398196877838</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9631660055568432</v>
+        <v>0.192505014417641</v>
       </c>
       <c r="Q19">
-        <v>2.133153135566857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4538613027111893</v>
+      </c>
+      <c r="R19">
+        <v>0.9707521609037286</v>
+      </c>
+      <c r="S19">
+        <v>1.887612768247607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.946433552271913</v>
+        <v>2.810056643726341</v>
       </c>
       <c r="C20">
-        <v>0.5123968242219235</v>
+        <v>0.5560178317732323</v>
       </c>
       <c r="D20">
-        <v>0.06360375453193967</v>
+        <v>0.07132771841057917</v>
       </c>
       <c r="E20">
-        <v>0.04969717873186008</v>
+        <v>0.05153213870534401</v>
       </c>
       <c r="F20">
-        <v>0.9292886909126707</v>
+        <v>0.8318665908557747</v>
       </c>
       <c r="G20">
-        <v>0.0008053122448777317</v>
+        <v>0.004801523892251858</v>
       </c>
       <c r="H20">
-        <v>0.0009718513753869118</v>
+        <v>0.0005241620002158776</v>
       </c>
       <c r="I20">
-        <v>0.00186629055454457</v>
+        <v>0.001955704971921435</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4382779614885806</v>
+        <v>0.3713142118912813</v>
       </c>
       <c r="L20">
-        <v>0.07906778842364748</v>
+        <v>0.1639054653960841</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1211256887008965</v>
       </c>
       <c r="N20">
-        <v>0.2616817523809374</v>
+        <v>0.0808702311180074</v>
       </c>
       <c r="O20">
-        <v>0.544119079342245</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9104675404294227</v>
+        <v>0.2815692871705124</v>
       </c>
       <c r="Q20">
-        <v>2.427107837621406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5334797024018769</v>
+      </c>
+      <c r="R20">
+        <v>0.9231501897140504</v>
+      </c>
+      <c r="S20">
+        <v>2.115761851796435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.321817067970642</v>
+        <v>3.070279575405891</v>
       </c>
       <c r="C21">
-        <v>0.5682491388855908</v>
+        <v>0.5751312253974561</v>
       </c>
       <c r="D21">
-        <v>0.06895556261024183</v>
+        <v>0.08520073763569513</v>
       </c>
       <c r="E21">
-        <v>0.05176301582429765</v>
+        <v>0.05379015034543855</v>
       </c>
       <c r="F21">
-        <v>0.9908397617719942</v>
+        <v>0.8169933826492723</v>
       </c>
       <c r="G21">
-        <v>0.0008014712451330113</v>
+        <v>0.06599350364719214</v>
       </c>
       <c r="H21">
-        <v>0.000158256509203758</v>
+        <v>5.537134375521724E-05</v>
       </c>
       <c r="I21">
-        <v>0.00166740015837874</v>
+        <v>0.002075010712490943</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4492809728293281</v>
+        <v>0.3498888971526704</v>
       </c>
       <c r="L21">
-        <v>0.08185252622638295</v>
+        <v>0.1508834306865587</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1201442777646875</v>
       </c>
       <c r="N21">
-        <v>0.295183009336327</v>
+        <v>0.08224576565343078</v>
       </c>
       <c r="O21">
-        <v>0.6153170164606721</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8886445747309679</v>
+        <v>0.3134699094162414</v>
       </c>
       <c r="Q21">
-        <v>2.584079372755838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5880678687928196</v>
+      </c>
+      <c r="R21">
+        <v>0.9483674622400002</v>
+      </c>
+      <c r="S21">
+        <v>2.022506089237737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.565814352656332</v>
+        <v>3.232099572433754</v>
       </c>
       <c r="C22">
-        <v>0.6040617682518814</v>
+        <v>0.5843291235434549</v>
       </c>
       <c r="D22">
-        <v>0.07189346485765924</v>
+        <v>0.09483117711047129</v>
       </c>
       <c r="E22">
-        <v>0.05283982371535956</v>
+        <v>0.0552413825424285</v>
       </c>
       <c r="F22">
-        <v>1.028800255999585</v>
+        <v>0.8011457528920829</v>
       </c>
       <c r="G22">
-        <v>0.0007990424329069606</v>
+        <v>0.1549451020794095</v>
       </c>
       <c r="H22">
-        <v>5.848150406162489E-06</v>
+        <v>7.440343052778076E-08</v>
       </c>
       <c r="I22">
-        <v>0.001516388944507341</v>
+        <v>0.001926533131566543</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4559998637925275</v>
+        <v>0.3342548678149271</v>
       </c>
       <c r="L22">
-        <v>0.08387419757882153</v>
+        <v>0.1424045862461973</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1186823802614789</v>
       </c>
       <c r="N22">
-        <v>0.3125542102932712</v>
+        <v>0.08346295370309598</v>
       </c>
       <c r="O22">
-        <v>0.6590002975797518</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8760653540307359</v>
+        <v>0.3292613722692437</v>
       </c>
       <c r="Q22">
-        <v>2.682769039923073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6197078966678973</v>
+      </c>
+      <c r="R22">
+        <v>0.9716306361566609</v>
+      </c>
+      <c r="S22">
+        <v>1.946445517329153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.439599764969898</v>
+        <v>3.159991905263041</v>
       </c>
       <c r="C23">
-        <v>0.5832610537710252</v>
+        <v>0.5824541709757511</v>
       </c>
       <c r="D23">
-        <v>0.07025151632990401</v>
+        <v>0.08849260548822002</v>
       </c>
       <c r="E23">
-        <v>0.05229597917302087</v>
+        <v>0.05435354754368049</v>
       </c>
       <c r="F23">
-        <v>1.010431116751874</v>
+        <v>0.8188539273892346</v>
       </c>
       <c r="G23">
-        <v>0.0008003186551830352</v>
+        <v>0.08911181442934435</v>
       </c>
       <c r="H23">
-        <v>6.022697528251797E-05</v>
+        <v>1.307985534282352E-05</v>
       </c>
       <c r="I23">
-        <v>0.001266135745756181</v>
+        <v>0.001631602071048732</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4537208296264055</v>
+        <v>0.3466913943026348</v>
       </c>
       <c r="L23">
-        <v>0.08279917727952935</v>
+        <v>0.1482309018019201</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1212095517805061</v>
       </c>
       <c r="N23">
-        <v>0.3027673257434316</v>
+        <v>0.0828743619596537</v>
       </c>
       <c r="O23">
-        <v>0.6359326534544536</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8816572740203625</v>
+        <v>0.3207630801806118</v>
       </c>
       <c r="Q23">
-        <v>2.635934116504615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6047799592778134</v>
+      </c>
+      <c r="R23">
+        <v>0.9532216026232447</v>
+      </c>
+      <c r="S23">
+        <v>2.01672177007481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.95491316974551</v>
+        <v>2.81838101363121</v>
       </c>
       <c r="C24">
-        <v>0.5076036578219032</v>
+        <v>0.5516373552524101</v>
       </c>
       <c r="D24">
-        <v>0.06419986444726078</v>
+        <v>0.07189851168891437</v>
       </c>
       <c r="E24">
-        <v>0.05018264973542053</v>
+        <v>0.05198267166912851</v>
       </c>
       <c r="F24">
-        <v>0.9393513716114654</v>
+        <v>0.8416309702408569</v>
       </c>
       <c r="G24">
-        <v>0.0008052841804894626</v>
+        <v>0.004598502529399084</v>
       </c>
       <c r="H24">
-        <v>0.0008136833256653375</v>
+        <v>0.0003785876738953142</v>
       </c>
       <c r="I24">
-        <v>0.001362162854632309</v>
+        <v>0.001361014472193389</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4437088743834074</v>
+        <v>0.3761785251250238</v>
       </c>
       <c r="L24">
-        <v>0.07869892645314724</v>
+        <v>0.1657747281653812</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1229048546360474</v>
       </c>
       <c r="N24">
-        <v>0.2667039142970964</v>
+        <v>0.08035636488964926</v>
       </c>
       <c r="O24">
-        <v>0.5482500463286542</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9060752855612719</v>
+        <v>0.2869139296773398</v>
       </c>
       <c r="Q24">
-        <v>2.45372162548486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5376612071467761</v>
+      </c>
+      <c r="R24">
+        <v>0.9176018279705787</v>
+      </c>
+      <c r="S24">
+        <v>2.141569933699515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.43164666905983</v>
+        <v>2.333604757046658</v>
       </c>
       <c r="C25">
-        <v>0.4266043443941783</v>
+        <v>0.4645605330871945</v>
       </c>
       <c r="D25">
-        <v>0.05776436273318808</v>
+        <v>0.06506943636664175</v>
       </c>
       <c r="E25">
-        <v>0.04788346409532718</v>
+        <v>0.05058598736833009</v>
       </c>
       <c r="F25">
-        <v>0.8660281421723397</v>
+        <v>0.7825156581900998</v>
       </c>
       <c r="G25">
-        <v>0.0008108794342872888</v>
+        <v>0.005899639726403727</v>
       </c>
       <c r="H25">
-        <v>0.002692520957501499</v>
+        <v>0.001567343678850586</v>
       </c>
       <c r="I25">
-        <v>0.002589840320700532</v>
+        <v>0.001784293936883508</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4345394313064297</v>
+        <v>0.3736355543224867</v>
       </c>
       <c r="L25">
-        <v>0.07420108540473525</v>
+        <v>0.1733352597488853</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1120570060563004</v>
       </c>
       <c r="N25">
-        <v>0.2281015165799118</v>
+        <v>0.07658070057389565</v>
       </c>
       <c r="O25">
-        <v>0.4538000447595749</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9353818950329398</v>
+        <v>0.2457164685918514</v>
       </c>
       <c r="Q25">
-        <v>2.267113532634966</v>
+        <v>0.446414810210392</v>
+      </c>
+      <c r="R25">
+        <v>0.925854023383792</v>
+      </c>
+      <c r="S25">
+        <v>1.997514003187177</v>
       </c>
     </row>
   </sheetData>
